--- a/test/files/viffer/generic/001/2.xlsx
+++ b/test/files/viffer/generic/001/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -10274,33 +10274,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO465"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D409" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C439" sqref="C439"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="36" style="11" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="11" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="11" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="54.33203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="55" style="11" customWidth="1"/>
-    <col min="13" max="13" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" style="87" customWidth="1"/>
-    <col min="18" max="16384" width="8.6640625" style="11"/>
+    <col min="1" max="15" width="12" style="11"/>
+    <col min="17" max="17" width="12" style="87"/>
+    <col min="18" max="16384" width="12" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13" customHeight="1">
@@ -22971,22 +22956,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H361"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="124" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="124" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="124" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="124" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3" style="124" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="124" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="124"/>
+    <col min="1" max="16384" width="12" style="124"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13" customHeight="1">
